--- a/biology/Médecine/Sagen_Ishizuka/Sagen_Ishizuka.xlsx
+++ b/biology/Médecine/Sagen_Ishizuka/Sagen_Ishizuka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sagen Ishizuka (石塚左玄, Ishizuka Sagen?), né le 6 mars 1851[1], mort le 17 octobre 1909, est un médecin japonais. Il a créé un système thérapeutique basé uniquement sur l’alimentation, devenu plus tard la base de la macrobiotique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagen Ishizuka (石塚左玄, Ishizuka Sagen?), né le 6 mars 1851, mort le 17 octobre 1909, est un médecin japonais. Il a créé un système thérapeutique basé uniquement sur l’alimentation, devenu plus tard la base de la macrobiotique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sagen Ishizuka nait au sein d’une modeste famille de médecins traditionnels et, étant l’héritier, il étudie à son tour la médecine. Par manque de moyens, il réalise ses études de manière autodidacte, tout en travaillant en tant que professeur de langues. À 16 ans, il connait le néerlandais (langue indispensable pour étudier la médecine occidentale à cette époque) et plus tard il maîtrisera aussi l’usage de l’allemand, du français et de l’anglais. Jusqu’à 23 ans, il étudie, toujours en autodidacte, l'anatomie, la botanique, la chimie, la physique et l'astronomie.
 À 24 ans, il s'engage dans l’Armée impériale japonaise en tant qu’apprenti médecin. À 31 ans, il reçoit le grade de pharmacien militaire et plus tard, celui de médecin militaire. Il reste vingt-deux années dans l’armée, se retirant avec le haut grade de pharmacien militaire en chef. Cette expérience s’avérera très formatrice, car il sera confronté à toutes sortes de pathologies et blessures (il participe à la guerre civile de Satsuma en 1877 et à la guerre sino-japonaise de 1894).
@@ -547,7 +561,9 @@
           <t>Le système thérapeutique d’Ishizuka</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie d’Ishizuka repose sur plusieurs principes.
 La santé et la longévité dépendent de l’équilibre dans l’organisme entre le sodium et le potassium. Là où les théories sur la nutrition occidentales insistaient sur l’importance des protéines et des hydrates de carbone, Ishizuka maintint que les minéraux étaient cruciaux, spécialement le sodium et le potassium, car leur interaction détermine la capacité de l’organisme à absorber et à utiliser les autres nutriments ; le bon fonctionnement de tout le corps dépend de leur bon équilibre.
